--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H2">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N2">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q2">
-        <v>201.3572487630627</v>
+        <v>341.4673044238933</v>
       </c>
       <c r="R2">
-        <v>1812.215238867564</v>
+        <v>3073.20573981504</v>
       </c>
       <c r="S2">
-        <v>0.03677296031128284</v>
+        <v>0.03802539454193959</v>
       </c>
       <c r="T2">
-        <v>0.03677296031128284</v>
+        <v>0.03802539454193957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H3">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q3">
-        <v>2248.721728104162</v>
+        <v>3298.590915270528</v>
       </c>
       <c r="R3">
-        <v>20238.49555293746</v>
+        <v>29687.31823743475</v>
       </c>
       <c r="S3">
-        <v>0.4106738414766367</v>
+        <v>0.3673271770403878</v>
       </c>
       <c r="T3">
-        <v>0.4106738414766367</v>
+        <v>0.3673271770403877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H4">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N4">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q4">
-        <v>262.516547758934</v>
+        <v>956.7428649268055</v>
       </c>
       <c r="R4">
-        <v>2362.648929830406</v>
+        <v>8610.685784341251</v>
       </c>
       <c r="S4">
-        <v>0.04794220546365114</v>
+        <v>0.1065417521463931</v>
       </c>
       <c r="T4">
-        <v>0.04794220546365114</v>
+        <v>0.1065417521463931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H5">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N5">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q5">
-        <v>365.0562968546988</v>
+        <v>844.8640194199894</v>
       </c>
       <c r="R5">
-        <v>3285.506671692288</v>
+        <v>7603.776174779905</v>
       </c>
       <c r="S5">
-        <v>0.06666857437756311</v>
+        <v>0.09408305643474676</v>
       </c>
       <c r="T5">
-        <v>0.06666857437756311</v>
+        <v>0.09408305643474674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H6">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N6">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q6">
-        <v>362.5625315076001</v>
+        <v>594.5374611962453</v>
       </c>
       <c r="R6">
-        <v>3263.0627835684</v>
+        <v>5350.837150766209</v>
       </c>
       <c r="S6">
-        <v>0.06621314933228739</v>
+        <v>0.06620698743059052</v>
       </c>
       <c r="T6">
-        <v>0.06621314933228739</v>
+        <v>0.06620698743059049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N7">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q7">
-        <v>48.0876549735211</v>
+        <v>55.59333326324721</v>
       </c>
       <c r="R7">
-        <v>432.7888947616899</v>
+        <v>500.3399993692249</v>
       </c>
       <c r="S7">
-        <v>0.008782030141287565</v>
+        <v>0.006190807740152677</v>
       </c>
       <c r="T7">
-        <v>0.008782030141287565</v>
+        <v>0.006190807740152674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q8">
         <v>537.0343270818948</v>
@@ -948,10 +948,10 @@
         <v>4833.308943737055</v>
       </c>
       <c r="S8">
-        <v>0.09807614137009245</v>
+        <v>0.05980350652987784</v>
       </c>
       <c r="T8">
-        <v>0.09807614137009245</v>
+        <v>0.05980350652987781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N9">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q9">
-        <v>62.69357200209831</v>
+        <v>155.7646200617856</v>
       </c>
       <c r="R9">
-        <v>564.2421480188849</v>
+        <v>1401.88158055607</v>
       </c>
       <c r="S9">
-        <v>0.01144944246689879</v>
+        <v>0.01734576358201476</v>
       </c>
       <c r="T9">
-        <v>0.01144944246689879</v>
+        <v>0.01734576358201475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N10">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q10">
-        <v>87.18186882716444</v>
+        <v>137.5499392920956</v>
       </c>
       <c r="R10">
-        <v>784.6368194444799</v>
+        <v>1237.94945362886</v>
       </c>
       <c r="S10">
-        <v>0.015921628955197</v>
+        <v>0.01531739830736131</v>
       </c>
       <c r="T10">
-        <v>0.015921628955197</v>
+        <v>0.0153173983073613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N11">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q11">
-        <v>86.58631377099999</v>
+        <v>96.79497506659388</v>
       </c>
       <c r="R11">
-        <v>779.2768239389999</v>
+        <v>871.1547755993448</v>
       </c>
       <c r="S11">
-        <v>0.01581286543872043</v>
+        <v>0.01077897376673962</v>
       </c>
       <c r="T11">
-        <v>0.01581286543872043</v>
+        <v>0.01077897376673962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H12">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N12">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q12">
-        <v>1.024570124400667</v>
+        <v>0.1721912061838889</v>
       </c>
       <c r="R12">
-        <v>9.221131119606</v>
+        <v>1.549720855655</v>
       </c>
       <c r="S12">
-        <v>0.0001871125909405218</v>
+        <v>1.9175008754767E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001871125909405218</v>
+        <v>1.917500875476699E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H13">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>142.755867</v>
       </c>
       <c r="O13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q13">
-        <v>11.442215837073</v>
+        <v>1.663375500521</v>
       </c>
       <c r="R13">
-        <v>102.979942533657</v>
+        <v>14.970379504689</v>
       </c>
       <c r="S13">
-        <v>0.002089639938142634</v>
+        <v>0.0001852315254176981</v>
       </c>
       <c r="T13">
-        <v>0.002089639938142635</v>
+        <v>0.0001852315254176981</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H14">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N14">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q14">
-        <v>1.335768211211</v>
+        <v>0.4824552915762224</v>
       </c>
       <c r="R14">
-        <v>12.021913900899</v>
+        <v>4.342097624186001</v>
       </c>
       <c r="S14">
-        <v>0.0002439452848987578</v>
+        <v>5.372564978654125E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002439452848987578</v>
+        <v>5.372564978654122E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H15">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N15">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q15">
-        <v>1.857523271594667</v>
+        <v>0.4260383137142223</v>
       </c>
       <c r="R15">
-        <v>16.717709444352</v>
+        <v>3.834344823428</v>
       </c>
       <c r="S15">
-        <v>0.0003392310431496381</v>
+        <v>4.744312195950425E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003392310431496381</v>
+        <v>4.744312195950422E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H16">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N16">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q16">
-        <v>1.8448341954</v>
+        <v>0.2998065151145556</v>
       </c>
       <c r="R16">
-        <v>16.6035077586</v>
+        <v>2.698258636031</v>
       </c>
       <c r="S16">
-        <v>0.0003369136947643193</v>
+        <v>3.338609839296007E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003369136947643193</v>
+        <v>3.338609839296005E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H17">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N17">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O17">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P17">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q17">
-        <v>69.20721634836045</v>
+        <v>110.0158411994667</v>
       </c>
       <c r="R17">
-        <v>622.8649471352441</v>
+        <v>990.1425707952</v>
       </c>
       <c r="S17">
-        <v>0.01263899976616821</v>
+        <v>0.01225123375876677</v>
       </c>
       <c r="T17">
-        <v>0.01263899976616821</v>
+        <v>0.01225123375876677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H18">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>142.755867</v>
       </c>
       <c r="O18">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P18">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q18">
-        <v>772.8938098836019</v>
+        <v>1062.75842405664</v>
       </c>
       <c r="R18">
-        <v>6956.044288952418</v>
+        <v>9564.825816509761</v>
       </c>
       <c r="S18">
-        <v>0.1411500880662588</v>
+        <v>0.1183475192323449</v>
       </c>
       <c r="T18">
-        <v>0.1411500880662588</v>
+        <v>0.1183475192323448</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H19">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N19">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O19">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P19">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q19">
-        <v>90.22788912434731</v>
+        <v>308.2487539300267</v>
       </c>
       <c r="R19">
-        <v>812.051002119126</v>
+        <v>2774.238785370241</v>
       </c>
       <c r="S19">
-        <v>0.01647790981513004</v>
+        <v>0.03432621610735494</v>
       </c>
       <c r="T19">
-        <v>0.01647790981513005</v>
+        <v>0.03432621610735492</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H20">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N20">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O20">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P20">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q20">
-        <v>125.4711726096498</v>
+        <v>272.2030033079467</v>
       </c>
       <c r="R20">
-        <v>1129.240553486848</v>
+        <v>2449.82702977152</v>
       </c>
       <c r="S20">
-        <v>0.02291423069657654</v>
+        <v>0.03031220401539944</v>
       </c>
       <c r="T20">
-        <v>0.02291423069657654</v>
+        <v>0.03031220401539942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H21">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N21">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O21">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P21">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q21">
-        <v>124.6140564196</v>
+        <v>191.5513961972267</v>
       </c>
       <c r="R21">
-        <v>1121.5265077764</v>
+        <v>1723.96256577504</v>
       </c>
       <c r="S21">
-        <v>0.0227576994575351</v>
+        <v>0.02133093658190153</v>
       </c>
       <c r="T21">
-        <v>0.0227576994575351</v>
+        <v>0.02133093658190152</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H22">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N22">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O22">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P22">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q22">
-        <v>0.8177062985626666</v>
+        <v>0.7478274248522222</v>
       </c>
       <c r="R22">
-        <v>7.359356687064</v>
+        <v>6.730446823669999</v>
       </c>
       <c r="S22">
-        <v>0.0001493339894543043</v>
+        <v>8.327717620656234E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001493339894543044</v>
+        <v>8.32771762065623E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H23">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>142.755867</v>
       </c>
       <c r="O23">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P23">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q23">
-        <v>9.131997641411999</v>
+        <v>7.224049617194</v>
       </c>
       <c r="R23">
-        <v>82.18797877270799</v>
+        <v>65.016446554746</v>
       </c>
       <c r="S23">
-        <v>0.001667735275949865</v>
+        <v>0.0008044616082579421</v>
       </c>
       <c r="T23">
-        <v>0.001667735275949865</v>
+        <v>0.0008044616082579418</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H24">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N24">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O24">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P24">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q24">
-        <v>1.066072544684</v>
+        <v>2.095306179111556</v>
       </c>
       <c r="R24">
-        <v>9.594652902156</v>
+        <v>18.857755612004</v>
       </c>
       <c r="S24">
-        <v>0.0001946919895630021</v>
+        <v>0.0002333308141501404</v>
       </c>
       <c r="T24">
-        <v>0.0001946919895630022</v>
+        <v>0.0002333308141501403</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H25">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N25">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O25">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P25">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q25">
-        <v>1.482483670698667</v>
+        <v>1.850286911243556</v>
       </c>
       <c r="R25">
-        <v>13.342353036288</v>
+        <v>16.652582201192</v>
       </c>
       <c r="S25">
-        <v>0.000270739263272688</v>
+        <v>0.0002060457587133483</v>
       </c>
       <c r="T25">
-        <v>0.0002707392632726881</v>
+        <v>0.0002060457587133482</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H26">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N26">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O26">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P26">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q26">
-        <v>1.4723565576</v>
+        <v>1.302061464814889</v>
       </c>
       <c r="R26">
-        <v>13.2512090184</v>
+        <v>11.718553183334</v>
       </c>
       <c r="S26">
-        <v>0.0002688897945779536</v>
+        <v>0.0001449960223892449</v>
       </c>
       <c r="T26">
-        <v>0.0002688897945779536</v>
+        <v>0.0001449960223892449</v>
       </c>
     </row>
   </sheetData>
